--- a/InputData/elec/MPCbS/Max Potential Capacity by Source_HK.xlsx
+++ b/InputData/elec/MPCbS/Max Potential Capacity by Source_HK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\elec\MPCbS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{ACF651EF-F2FB-4325-ABB0-8A871EFFF361}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1935F184-F0D2-4188-92CB-CF9650DDEA63}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{ACF651EF-F2FB-4325-ABB0-8A871EFFF361}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F4293027-9FC4-40B8-9371-3B529C7D8CD1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>MPCbS Max Potential Capacity by Source</t>
   </si>
@@ -230,10 +230,13 @@
     <t>kW nameplate capacity each</t>
   </si>
   <si>
-    <t xml:space="preserve">changed 300 to 0, in order to remove biomass in the projection, </t>
-  </si>
-  <si>
-    <t>same with petroleum</t>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
   </si>
 </sst>
 </file>
@@ -419,12 +422,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -996,7 +999,7 @@
       <c r="F3" s="15">
         <v>100</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="31">
         <f>SUM(F3:F4)</f>
         <v>300</v>
       </c>
@@ -1014,7 +1017,7 @@
       <c r="F4" s="15">
         <v>200</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="31"/>
       <c r="J4">
         <f>J2*J3/1000</f>
         <v>10</v>
@@ -1174,10 +1177,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1186,7 +1189,7 @@
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1194,7 +1197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1">
+    <row r="2" spans="1:2" ht="15" customHeight="1">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1202,7 +1205,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1210,7 +1213,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1219,7 +1222,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1228,7 +1231,7 @@
         <v>1.714</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1236,7 +1239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:2">
       <c r="A7" s="28" t="s">
         <v>2</v>
       </c>
@@ -1245,7 +1248,7 @@
         <v>5970</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:2">
       <c r="A8" s="28" t="s">
         <v>3</v>
       </c>
@@ -1253,19 +1256,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="29">
         <f>Data!F13</f>
         <v>300</v>
       </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1273,18 +1273,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="30">
         <v>2000</v>
       </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1292,7 +1289,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1300,13 +1297,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14">
         <f>Data!G3</f>
         <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="13">
+        <f>B11</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="13">
+        <f>B11</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="13">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1317,6 +1340,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1550,40 +1591,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA4B95FC-9B95-4C8A-8D30-A1811A2B72B8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7D45668-82EE-4795-8390-B5A7CC99D20D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
-    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1607,9 +1618,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7D45668-82EE-4795-8390-B5A7CC99D20D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA4B95FC-9B95-4C8A-8D30-A1811A2B72B8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>